--- a/dcat-w3c/W3C-DCAT-Profile.xlsx
+++ b/dcat-w3c/W3C-DCAT-Profile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITREPO\bp4mc2\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITREPO\bp4mc2-dcat\dcat-w3c\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="257">
   <si>
     <t>uri schema</t>
   </si>
@@ -795,6 +795,9 @@
   </si>
   <si>
     <t>{conforms}</t>
+  </si>
+  <si>
+    <t>http://spdx.org/rdf/terms#{range}</t>
   </si>
 </sst>
 </file>
@@ -1173,11 +1176,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1794,34 +1795,48 @@
         <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c r="D44" t="s">
-        <v>168</v>
+        <v>256</v>
+      </c>
+      <c r="F44" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D45" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>169</v>
+      </c>
+      <c r="B46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>161</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>158</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>160</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G47" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1835,9 +1850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2364,13 +2377,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/dcat-w3c/W3C-DCAT-Profile.xlsx
+++ b/dcat-w3c/W3C-DCAT-Profile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="7485"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="7485" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="URI schema" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="263">
   <si>
     <t>uri schema</t>
   </si>
@@ -798,6 +798,24 @@
   </si>
   <si>
     <t>http://spdx.org/rdf/terms#{range}</t>
+  </si>
+  <si>
+    <t>isPrimaryTopicOf</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/modeling/doc#{profile}</t>
+  </si>
+  <si>
+    <t>http://xmlns.com/foaf/0.1/{property}</t>
+  </si>
+  <si>
+    <t>conformance</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/shacl#{conformance}</t>
+  </si>
+  <si>
+    <t>severity</t>
   </si>
 </sst>
 </file>
@@ -1176,9 +1194,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1398,41 +1418,38 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>247</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>252</v>
-      </c>
-      <c r="D15" t="s">
-        <v>255</v>
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s">
-        <v>2</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>248</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" t="s">
-        <v>3</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1443,10 +1460,10 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1457,10 +1474,10 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1471,10 +1488,10 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1484,11 +1501,11 @@
       <c r="B21" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>80</v>
+      <c r="D21" t="s">
+        <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1499,10 +1516,10 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1512,11 +1529,11 @@
       <c r="B23" t="s">
         <v>16</v>
       </c>
-      <c r="D23" t="s">
-        <v>101</v>
+      <c r="D23" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1526,11 +1543,11 @@
       <c r="B24" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>183</v>
+      <c r="D24" t="s">
+        <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>173</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1538,52 +1555,49 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>101</v>
+      </c>
+      <c r="E25" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" t="s">
-        <v>18</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1593,11 +1607,11 @@
       <c r="B29" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>141</v>
+      <c r="D29" t="s">
+        <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1608,10 +1622,10 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1622,10 +1636,10 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1635,14 +1649,14 @@
       <c r="B32" t="s">
         <v>30</v>
       </c>
-      <c r="D32" t="s">
-        <v>144</v>
+      <c r="D32" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="E32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1650,13 +1664,13 @@
         <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="E33" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1664,77 +1678,77 @@
         <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="E35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="E36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
-      </c>
-      <c r="F37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>58</v>
-      </c>
-      <c r="F39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -1742,13 +1756,13 @@
         <v>44</v>
       </c>
       <c r="D40" t="s">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -1756,27 +1770,27 @@
         <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="F41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>32</v>
       </c>
       <c r="B42" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>153</v>
+      <c r="D42" t="s">
+        <v>58</v>
       </c>
       <c r="F42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>32</v>
       </c>
@@ -1784,13 +1798,13 @@
         <v>44</v>
       </c>
       <c r="D43" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="F43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -1798,45 +1812,87 @@
         <v>44</v>
       </c>
       <c r="D44" t="s">
-        <v>256</v>
+        <v>152</v>
       </c>
       <c r="F44" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>32</v>
       </c>
       <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" t="s">
+        <v>156</v>
+      </c>
+      <c r="F46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" t="s">
+        <v>256</v>
+      </c>
+      <c r="F47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" t="s">
         <v>158</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D48" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>169</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B49" t="s">
         <v>170</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D49" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>161</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B50" t="s">
         <v>158</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D50" t="s">
         <v>160</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G50" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1848,16 +1904,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1939,37 +1997,37 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>89</v>
+        <v>248</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>106</v>
+        <v>257</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
-      </c>
+      <c r="B6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1979,13 +2037,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>102</v>
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1993,13 +2051,16 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2007,16 +2068,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2024,16 +2082,16 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>185</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2041,47 +2099,44 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>193</v>
+        <v>185</v>
+      </c>
+      <c r="E11" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c r="C12" t="s">
         <v>110</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
-      </c>
-      <c r="F12" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>260</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
-        <v>38</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2089,16 +2144,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s">
-        <v>102</v>
+        <v>112</v>
+      </c>
+      <c r="F14" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2106,13 +2161,16 @@
         <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2120,13 +2178,16 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2134,13 +2195,13 @@
         <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2148,13 +2209,13 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2162,16 +2223,13 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2179,13 +2237,13 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2193,13 +2251,16 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>167</v>
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2207,134 +2268,131 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>185</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="D22" t="s">
-        <v>185</v>
-      </c>
-      <c r="E22" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>185</v>
+      </c>
+      <c r="E24" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
-      </c>
-      <c r="F26" t="s">
-        <v>184</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="B27" t="s">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>172</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="B28" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>112</v>
+      </c>
+      <c r="F28" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B30" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C30" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2342,16 +2400,13 @@
         <v>161</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2359,12 +2414,46 @@
         <v>161</v>
       </c>
       <c r="B32" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34" t="s">
         <v>158</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>2</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D34" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2378,7 +2467,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2421,7 +2510,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
